--- a/instance/excel/STPI_Data.xlsx
+++ b/instance/excel/STPI_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -38,64 +38,64 @@
     <t>Address</t>
   </si>
   <si>
-    <t>2022-07-26</t>
-  </si>
-  <si>
-    <t>STPIN/PUR/PO/22-23/07</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
   </si>
   <si>
     <t>STPIN/PUR/PO/22-23/08</t>
   </si>
   <si>
-    <t>SMSG/MPU/16/025-STPIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supply of 01no. 4Ton Tower AC  at STPI-Noida</t>
-  </si>
-  <si>
-    <t>M/s  Kartik Infotech723, 7th Floor,Hemkunt Chamber89Nehru Place, Delhi-110019</t>
-  </si>
-  <si>
-    <t>AMC_Start_Period</t>
-  </si>
-  <si>
-    <t>AMC_End_Period</t>
+    <t>1asdasd</t>
+  </si>
+  <si>
+    <t>askndoan saidasdi</t>
+  </si>
+  <si>
+    <t>asd asiudas</t>
+  </si>
+  <si>
+    <t>asd@gmail.com</t>
+  </si>
+  <si>
+    <t>NOIDA</t>
+  </si>
+  <si>
+    <t>Start_Period</t>
+  </si>
+  <si>
+    <t>End_Period</t>
   </si>
   <si>
     <t>Work_Order_Number</t>
   </si>
   <si>
-    <t>2022-09-20</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-04-19</t>
-  </si>
-  <si>
-    <t>2022-08-08</t>
-  </si>
-  <si>
-    <t>STPIN/PUR/WO/22-23/07</t>
-  </si>
-  <si>
-    <t>STPIN/PUR/WO/22-23/12</t>
-  </si>
-  <si>
-    <t>STPIN/PUR/WO/22-23/10</t>
-  </si>
-  <si>
-    <t>SMSG/OMS/02/006-STPIN</t>
-  </si>
-  <si>
-    <t>SMSG/OMS/02/007-STPIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comprehensive AMC for Tritronics make UPS Systems installed at STPI Noida</t>
-  </si>
-  <si>
-    <t>M/s Fusion ServicesJ-5, Park Street,Mayur Vihar-IIDelhi-110091</t>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>STPIN/WOR/PO/22-23/08</t>
+  </si>
+  <si>
+    <t>oihiohio</t>
+  </si>
+  <si>
+    <t>bj ijbiuuh ih</t>
+  </si>
+  <si>
+    <t>asd asd asd</t>
   </si>
 </sst>
 </file>
@@ -453,13 +453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,51 +481,40 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>8527874292</v>
+        <v>123456789</v>
       </c>
       <c r="F2">
-        <v>100000</v>
+        <v>6565</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>8527874292</v>
-      </c>
-      <c r="F3">
-        <v>100000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -535,24 +524,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -569,92 +558,46 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2">
-        <v>9717054734</v>
+        <v>123456789</v>
       </c>
       <c r="H2">
-        <v>141600</v>
+        <v>654</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>9717054734</v>
-      </c>
-      <c r="H3">
-        <v>141600</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>9717054734</v>
-      </c>
-      <c r="H4">
-        <v>141600</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
